--- a/GoodsVK/Товары.xlsx
+++ b/GoodsVK/Товары.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DmitriyNKon\Desktop\Новая папка (2)\Наполнение товаров ВК\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Вит\Git\zennoproject\GoodsVK\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Название товара</t>
   </si>
@@ -51,13 +51,25 @@
   </si>
   <si>
     <t>Фото 4</t>
+  </si>
+  <si>
+    <t>Товар 111ппааап</t>
+  </si>
+  <si>
+    <t>павапрпапрнрпак</t>
+  </si>
+  <si>
+    <t>C:\1.jpg</t>
+  </si>
+  <si>
+    <t>Статус товара</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +77,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2B2F33"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,9 +106,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -372,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,9 +411,10 @@
     <col min="7" max="7" width="24.140625" customWidth="1"/>
     <col min="8" max="8" width="25.140625" customWidth="1"/>
     <col min="9" max="9" width="24.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,9 +441,33 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1999</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>